--- a/biology/Médecine/Kinésithérapie_respiratoire/Kinésithérapie_respiratoire.xlsx
+++ b/biology/Médecine/Kinésithérapie_respiratoire/Kinésithérapie_respiratoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kin%C3%A9sith%C3%A9rapie_respiratoire</t>
+          <t>Kinésithérapie_respiratoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La kinésithérapie respiratoire  est un ensemble de techniques dont le but est d'aider un patient à expectorer les sécrétions présentes dans l'arbre bronchique (ex : dans la mucoviscidose) qui ont été utilisées de façon controversée dans le traitement de la bronchiolite du nourrisson.
 Dans le cadre de la réhabilitation respiratoire, l'augmentation des possibilités à l'effort permet d'améliorer la qualité de vie des patients.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kin%C3%A9sith%C3%A9rapie_respiratoire</t>
+          <t>Kinésithérapie_respiratoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Pratique en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, depuis 2019, l'usage de kinésithérapie respiratoire n'est pas recommandé par la Haute Autorité de Santé et le Conseil National de Pédiatrie dans le traitement de la bronchiolite du nourrisson[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, depuis 2019, l'usage de kinésithérapie respiratoire n'est pas recommandé par la Haute Autorité de Santé et le Conseil National de Pédiatrie dans le traitement de la bronchiolite du nourrisson.
 Exemple du déroulement d'une séance : conformément à la convention d'exercice, un kinésithérapeute français effectue au préalable des séances un bilan diagnostic kinésithérapique. Cette démarche d'évaluation diagnostique permet d'apprécier la faisabilité du soin — rapport bénéfice/risque (HAS) — par l'évaluation de la charge de travail ventilatoire auquel le patient doit faire face et donc apprécier les effets d'une augmentation de cette charge de travail induite par le soin kinésithérapique (Delplanque).
 Auscultation des bruits pulmonaires : absents ? sibilants ? crépitants ? râles humides ?
 Évaluation par le kinésithérapeute du niveau d'encombrement bronchique et choix des techniques.
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kin%C3%A9sith%C3%A9rapie_respiratoire</t>
+          <t>Kinésithérapie_respiratoire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,10 +568,12 @@
           <t>Évaluation scientifique et controverses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alors que ces techniques étaient couramment utilisées en France, la Revue Prescrire, célèbre pour avoir dévoilé le scandale du Mediator, alerte à plusieurs reprises quant à l'inefficacité de la kinésithérapie dans le traitement de la bronchiolite du nourrisson en 2006[2] tout d'abord, puis en 2010[3] et en 2012[4]. La revue conclut : « Mieux vaut épargner cette épreuve aux bébés. »
-Les revues systématiques publiées par la Collaboration Cochrane, organisation non gouvernementale visant à promouvoir une pratique médicale fondée sur la science, concluent à l'inefficacité de la kinésithérapie respiratoire dans le traitement de la bronchiolite du nourrisson en milieu hospitalier ainsi qu'à l'absence de preuve scientifique de l'efficacité de ces techniques en ambulatoire, c'est-à-dire hors de l'hôpital[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors que ces techniques étaient couramment utilisées en France, la Revue Prescrire, célèbre pour avoir dévoilé le scandale du Mediator, alerte à plusieurs reprises quant à l'inefficacité de la kinésithérapie dans le traitement de la bronchiolite du nourrisson en 2006 tout d'abord, puis en 2010 et en 2012. La revue conclut : « Mieux vaut épargner cette épreuve aux bébés. »
+Les revues systématiques publiées par la Collaboration Cochrane, organisation non gouvernementale visant à promouvoir une pratique médicale fondée sur la science, concluent à l'inefficacité de la kinésithérapie respiratoire dans le traitement de la bronchiolite du nourrisson en milieu hospitalier ainsi qu'à l'absence de preuve scientifique de l'efficacité de ces techniques en ambulatoire, c'est-à-dire hors de l'hôpital,.
 </t>
         </is>
       </c>
